--- a/DOGELIO, CHRISTIAN.xlsx
+++ b/DOGELIO, CHRISTIAN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFE371A-4B66-4AD2-BD71-79CEA9D8DEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C148478-C9F2-4584-8C8C-83F61AE0DBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
   <si>
     <t>PERIOD</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>11/11,14/2022</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>11/21-23/2022</t>
   </si>
 </sst>
 </file>
@@ -495,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -505,9 +511,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -563,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -575,10 +578,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -587,13 +590,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2363,7 +2363,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -2710,23 +2710,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K131"/>
+  <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A64" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K77" sqref="K77"/>
+      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="33" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
@@ -2734,120 +2734,111 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="29" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="23" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="59">
+      <c r="F3" s="57">
         <v>42583</v>
       </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="27" t="s">
+      <c r="G3" s="52"/>
+      <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="23" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="27" t="s">
+      <c r="G4" s="52"/>
+      <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="28" t="s">
+      <c r="A5" s="16"/>
+      <c r="H5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
+      <c r="I5" s="27"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="20"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="52" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="15"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2874,2333 +2865,2361 @@
       <c r="J8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="14">
+      <c r="C9" s="13"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>46.25</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="14" t="str">
+        <v>48.75</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="14">
+      <c r="H9" s="11"/>
+      <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>86.75</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="21"/>
+        <v>86.25</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="36" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="14" t="str">
+      <c r="F10" s="20"/>
+      <c r="G10" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="36" t="s">
+      <c r="H10" s="39"/>
+      <c r="I10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="21"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="42">
+      <c r="A11" s="40">
         <v>43101</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="51">
+      <c r="C11" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="49">
         <v>43126</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="42">
+      <c r="A12" s="40">
         <v>43132</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H12" s="41">
+      <c r="C12" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H12" s="39">
         <v>2</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="21" t="s">
+      <c r="I12" s="9"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="42">
+      <c r="A13" s="40">
         <v>43160</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="21"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
+      <c r="A14" s="40">
         <v>43191</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="21"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="42">
+      <c r="A15" s="40">
         <v>43221</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="21"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="42">
+      <c r="A16" s="40">
         <v>43252</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="44">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="16"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H16" s="43"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="42">
+      <c r="A17" s="40">
         <v>43282</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="21"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="42">
+      <c r="A18" s="40">
         <v>43313</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="21"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="42">
+      <c r="A19" s="40">
         <v>43344</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="21"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="42">
+      <c r="A20" s="40">
         <v>43374</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="21"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="42">
+      <c r="A21" s="40">
         <v>43405</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="21"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="42">
+      <c r="A22" s="40">
         <v>43435</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D22" s="41">
+      <c r="C22" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D22" s="39">
         <v>5</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="21"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="14" t="str">
+      <c r="B23" s="20"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="21"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="42">
+      <c r="A24" s="40">
         <v>43466</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="21"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D24" s="39"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H24" s="39"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="42">
+      <c r="A25" s="40">
         <v>43497</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="21"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D25" s="39"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="42">
+      <c r="A26" s="40">
         <v>43525</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="21" t="s">
+      <c r="C26" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D26" s="39"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="20" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="42">
+      <c r="A27" s="40">
         <v>43556</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D27" s="41">
+      <c r="C27" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D27" s="39">
         <v>4</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="21" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H27" s="39"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="42">
+      <c r="A28" s="40">
         <v>43586</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="21"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="42">
+      <c r="A29" s="40">
         <v>43617</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H29" s="41"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="21"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D29" s="39"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H29" s="39"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="42">
+      <c r="A30" s="40">
         <v>43647</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="21"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D30" s="39"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="42">
+      <c r="A31" s="40">
         <v>43678</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D31" s="41">
+      <c r="C31" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D31" s="39">
         <v>2</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="21"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H31" s="39"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="42">
+      <c r="A32" s="40">
         <v>43709</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="21"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D32" s="39"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H32" s="39"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="20"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="42">
+      <c r="A33" s="40">
         <v>43739</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H33" s="41">
+      <c r="C33" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D33" s="39"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H33" s="39">
         <v>2</v>
       </c>
-      <c r="I33" s="10"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="21" t="s">
+      <c r="I33" s="9"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
-      <c r="B34" s="21" t="s">
+      <c r="A34" s="40"/>
+      <c r="B34" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="41">
+      <c r="C34" s="13"/>
+      <c r="D34" s="39">
         <v>5</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="14" t="str">
+      <c r="E34" s="9"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="21" t="s">
+      <c r="H34" s="39"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="42">
+      <c r="A35" s="40">
         <v>43770</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H35" s="41"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="21"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D35" s="39"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H35" s="39"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="42">
+      <c r="A36" s="40">
         <v>43800</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H36" s="41"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="21"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D36" s="39"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H36" s="39"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="14" t="str">
+      <c r="B37" s="20"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H37" s="41"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="21"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="42">
+      <c r="A38" s="40">
         <v>43831</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H38" s="41"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="21"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D38" s="39"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H38" s="39"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="42">
+      <c r="A39" s="40">
         <v>43862</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H39" s="41"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="21" t="s">
+      <c r="C39" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D39" s="39"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H39" s="39"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="20" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="42">
+      <c r="A40" s="40">
         <v>43891</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H40" s="41"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="21"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D40" s="39"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H40" s="39"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="42">
+      <c r="A41" s="40">
         <v>43922</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H41" s="41"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="21"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D41" s="39"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H41" s="39"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="20"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="42">
+      <c r="A42" s="40">
         <v>43952</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H42" s="41"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="21"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D42" s="39"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H42" s="39"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="42">
+      <c r="A43" s="40">
         <v>43983</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H43" s="41"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="21"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D43" s="39"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H43" s="39"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="42">
+      <c r="A44" s="40">
         <v>44013</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H44" s="41"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="21"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D44" s="39"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H44" s="39"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="42">
+      <c r="A45" s="40">
         <v>44044</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H45" s="41"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="21"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D45" s="39"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H45" s="39"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="42">
+      <c r="A46" s="40">
         <v>44075</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H46" s="41"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="21"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D46" s="39"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H46" s="39"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="20"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="42">
+      <c r="A47" s="40">
         <v>44105</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H47" s="41"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="21"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D47" s="39"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H47" s="39"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="42">
+      <c r="A48" s="40">
         <v>44136</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H48" s="41"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="21"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D48" s="39"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H48" s="39"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="42">
+      <c r="A49" s="40">
         <v>44166</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D49" s="41">
+      <c r="C49" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D49" s="39">
         <v>5</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="21"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H49" s="39"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="14" t="str">
+      <c r="B50" s="20"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H50" s="41"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="21"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="42">
+      <c r="A51" s="40">
         <v>44197</v>
       </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D51" s="41"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H51" s="41"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="21"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D51" s="39"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H51" s="39"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="42">
+      <c r="A52" s="40">
         <v>44228</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H52" s="41"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="21"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D52" s="39"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H52" s="39"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="42">
+      <c r="A53" s="40">
         <v>44256</v>
       </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D53" s="41"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H53" s="41"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="21"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D53" s="39"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H53" s="39"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="42">
+      <c r="A54" s="40">
         <v>44287</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D54" s="41"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H54" s="41"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="21"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D54" s="39"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H54" s="39"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="42">
+      <c r="A55" s="40">
         <v>44317</v>
       </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D55" s="41"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H55" s="41"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="21"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D55" s="39"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H55" s="39"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="42">
+      <c r="A56" s="40">
         <v>44348</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D56" s="41"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H56" s="41"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="21"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D56" s="39"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H56" s="39"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="42">
+      <c r="A57" s="40">
         <v>44378</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D57" s="41"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H57" s="41"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="21"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D57" s="39"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H57" s="39"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="42">
+      <c r="A58" s="40">
         <v>44409</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D58" s="41"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H58" s="41"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="21"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D58" s="39"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H58" s="39"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="20"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="42">
+      <c r="A59" s="40">
         <v>44440</v>
       </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H59" s="41"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="21"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D59" s="39"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H59" s="39"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="20"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="42">
+      <c r="A60" s="40">
         <v>44470</v>
       </c>
-      <c r="B60" s="21"/>
-      <c r="C60" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D60" s="41"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H60" s="41"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="21"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D60" s="39"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H60" s="39"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="20"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="42">
+      <c r="A61" s="40">
         <v>44501</v>
       </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D61" s="41"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H61" s="41"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="21"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D61" s="39"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H61" s="39"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="42">
+      <c r="A62" s="40">
         <v>44531</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C62" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D62" s="41">
+      <c r="C62" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D62" s="39">
         <v>5</v>
       </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H62" s="41"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="21"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H62" s="39"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="50" t="s">
+      <c r="A63" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="14" t="str">
+      <c r="B63" s="20"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H63" s="41"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="21"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="42">
+      <c r="A64" s="40">
         <v>44562</v>
       </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D64" s="41"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H64" s="41"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="21"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D64" s="39"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H64" s="39"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="42">
+      <c r="A65" s="40">
         <v>44593</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D65" s="41"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H65" s="41"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="21"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D65" s="39"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H65" s="39"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="20"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="42">
+      <c r="A66" s="40">
         <v>44621</v>
       </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D66" s="41"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H66" s="41"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="21"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D66" s="39"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H66" s="39"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="20"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="42">
+      <c r="A67" s="40">
         <v>44652</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D67" s="41">
+      <c r="C67" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D67" s="39">
         <v>4</v>
       </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H67" s="41"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="21" t="s">
+      <c r="E67" s="9"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H67" s="39"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="20" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="42">
+      <c r="A68" s="40">
         <v>44682</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C68" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D68" s="41"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H68" s="41">
+      <c r="C68" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D68" s="39"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H68" s="39">
         <v>1</v>
       </c>
-      <c r="I68" s="10"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="51">
+      <c r="I68" s="9"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="49">
         <v>44706</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="42">
+      <c r="A69" s="40">
         <v>44713</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D69" s="41">
+      <c r="C69" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D69" s="39">
         <v>2</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H69" s="41"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="21" t="s">
+      <c r="E69" s="9"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H69" s="39"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="42"/>
-      <c r="B70" s="21" t="s">
+      <c r="A70" s="40"/>
+      <c r="B70" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="14" t="str">
+      <c r="C70" s="13"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H70" s="41">
+      <c r="H70" s="39">
         <v>2</v>
       </c>
-      <c r="I70" s="10"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="21" t="s">
+      <c r="I70" s="9"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="20" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="42">
+      <c r="A71" s="40">
         <v>44743</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D71" s="41">
+      <c r="C71" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D71" s="39">
         <v>2</v>
       </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H71" s="41"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="21" t="s">
+      <c r="E71" s="9"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H71" s="39"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="20" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="42">
+      <c r="A72" s="40">
         <v>44774</v>
       </c>
-      <c r="B72" s="21"/>
-      <c r="C72" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D72" s="41"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H72" s="41"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="21"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D72" s="39"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H72" s="39"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="42">
+      <c r="A73" s="40">
         <v>44805</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C73" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D73" s="41"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H73" s="41"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="21" t="s">
+      <c r="C73" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D73" s="39"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H73" s="39"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="20" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="42"/>
-      <c r="B74" s="21" t="s">
+      <c r="A74" s="40"/>
+      <c r="B74" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="41">
+      <c r="C74" s="13"/>
+      <c r="D74" s="39">
         <v>1</v>
       </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="14" t="str">
+      <c r="E74" s="9"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H74" s="41"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="51">
+      <c r="H74" s="39"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="49">
         <v>44824</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="42">
+      <c r="A75" s="40">
         <v>44835</v>
       </c>
-      <c r="B75" s="21"/>
-      <c r="C75" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D75" s="41"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H75" s="41"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="21"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D75" s="39"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H75" s="39"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="42">
+      <c r="A76" s="40">
         <v>44866</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="41">
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D76" s="39">
         <v>2</v>
       </c>
-      <c r="E76" s="10"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="14" t="str">
+      <c r="E76" s="9"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H76" s="39"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="40"/>
+      <c r="B77" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H76" s="41"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="42"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="14" t="str">
+      <c r="H77" s="39">
+        <v>3</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B78" s="20"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D78" s="39"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H78" s="39"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="20"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="40"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H77" s="41"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="21"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="42"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="14" t="str">
+      <c r="H79" s="39"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="20"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="40"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H78" s="41"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="21"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="42"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
+      <c r="H80" s="39"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="20"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="40"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H79" s="41"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="21"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="42"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="14" t="str">
+      <c r="H81" s="39"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="20"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="40"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H80" s="41"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="21"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="42"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="14" t="str">
+      <c r="H82" s="39"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="20"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="40"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H81" s="41"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="21"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="42"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="14" t="str">
+      <c r="H83" s="39"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="20"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="40"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H82" s="41"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="21"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="42"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="14" t="str">
+      <c r="H84" s="39"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="20"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="40"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H83" s="41"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="21"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="42"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="14" t="str">
+      <c r="H85" s="39"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="20"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="40"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H84" s="41"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="21"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="42"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="14" t="str">
+      <c r="H86" s="39"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="20"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="40"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H85" s="41"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="21"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="42"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="14" t="str">
+      <c r="H87" s="39"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="20"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="40"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H86" s="41"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="21"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="42"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="14" t="str">
+      <c r="H88" s="39"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="20"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="23"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H87" s="41"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="21"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="24"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="14" t="str">
+      <c r="H89" s="39"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="20"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B90" s="20"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H88" s="41"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="21"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B89" s="21"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="41"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="14" t="str">
+      <c r="H90" s="39"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="20"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="40"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H89" s="41"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="21"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="42"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="14" t="str">
+      <c r="H91" s="39"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="20"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="40"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H90" s="41"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="21"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="42"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="14" t="str">
+      <c r="H92" s="39"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="20"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="40"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H91" s="41"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="21"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="42"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="14" t="str">
+      <c r="H93" s="39"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="20"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="40"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H92" s="41"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="21"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="42"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="14" t="str">
+      <c r="H94" s="39"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="20"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="40"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H93" s="41"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="21"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="42"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="14" t="str">
+      <c r="H95" s="39"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="20"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="40"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H94" s="41"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="21"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="42"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="14" t="str">
+      <c r="H96" s="39"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="20"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="40"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H95" s="41"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="21"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="42"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="14" t="str">
+      <c r="H97" s="39"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="20"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="40"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H96" s="41"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="21"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="42"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="14" t="str">
+      <c r="H98" s="39"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="20"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="40"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H97" s="41"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="21"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="42"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="14" t="str">
+      <c r="H99" s="39"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="20"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="40"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H98" s="41"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="21"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="42"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="14" t="str">
+      <c r="H100" s="39"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="20"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="40"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H99" s="41"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="21"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="42"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="41"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="14" t="str">
+      <c r="H101" s="39"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="20"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="40"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H100" s="41"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="21"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="42"/>
-      <c r="B101" s="21"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="41"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="14" t="str">
+      <c r="H102" s="39"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="20"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="40"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H101" s="41"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="21"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="42"/>
-      <c r="B102" s="21"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="14" t="str">
+      <c r="H103" s="39"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="20"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="40"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H102" s="41"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="21"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="42"/>
-      <c r="B103" s="21"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="41"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="14" t="str">
+      <c r="H104" s="39"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="20"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="40"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H103" s="41"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="21"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="42"/>
-      <c r="B104" s="21"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="41"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="14" t="str">
+      <c r="H105" s="39"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="20"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="40"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H104" s="41"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="21"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="42"/>
-      <c r="B105" s="21"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="14" t="str">
+      <c r="H106" s="39"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="20"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="40"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H105" s="41"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="21"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="42"/>
-      <c r="B106" s="21"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="14" t="str">
+      <c r="H107" s="39"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="20"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="40"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H106" s="41"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="21"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="42"/>
-      <c r="B107" s="21"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="41"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="14" t="str">
+      <c r="H108" s="39"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="20"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="40"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H107" s="41"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="21"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="42"/>
-      <c r="B108" s="21"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="41"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="14" t="str">
+      <c r="H109" s="39"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="20"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="40"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H108" s="41"/>
-      <c r="I108" s="10"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="21"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="42"/>
-      <c r="B109" s="21"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="41"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="14" t="str">
+      <c r="H110" s="39"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="20"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="40"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H109" s="41"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="21"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="42"/>
-      <c r="B110" s="21"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="41"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="14" t="str">
+      <c r="H111" s="39"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="20"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="40"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H110" s="41"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="21"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="42"/>
-      <c r="B111" s="21"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="14" t="str">
+      <c r="H112" s="39"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="20"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="40"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H111" s="41"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="21"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="42"/>
-      <c r="B112" s="21"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="41"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="14" t="str">
+      <c r="H113" s="39"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="20"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="40"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H112" s="41"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="21"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="42"/>
-      <c r="B113" s="21"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="41"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="14" t="str">
+      <c r="H114" s="39"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="20"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="40"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H113" s="41"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="21"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="42"/>
-      <c r="B114" s="21"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="41"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="14" t="str">
+      <c r="H115" s="39"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="20"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="40"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="39"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H114" s="41"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="21"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="42"/>
-      <c r="B115" s="21"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="41"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="14" t="str">
+      <c r="H116" s="39"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="20"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="40"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="39"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H115" s="41"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="21"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="42"/>
-      <c r="B116" s="21"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="41"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="21"/>
-      <c r="G116" s="14" t="str">
+      <c r="H117" s="39"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="20"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="40"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H116" s="41"/>
-      <c r="I116" s="10"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="21"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="42"/>
-      <c r="B117" s="21"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="41"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="21"/>
-      <c r="G117" s="14" t="str">
+      <c r="H118" s="39"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="20"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="40"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="39"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H117" s="41"/>
-      <c r="I117" s="10"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="21"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="42"/>
-      <c r="B118" s="21"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="41"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="21"/>
-      <c r="G118" s="14" t="str">
+      <c r="H119" s="39"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="20"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="40"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="39"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H118" s="41"/>
-      <c r="I118" s="10"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="21"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="42"/>
-      <c r="B119" s="21"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="41"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="21"/>
-      <c r="G119" s="14" t="str">
+      <c r="H120" s="39"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="20"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="40"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="39"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H119" s="41"/>
-      <c r="I119" s="10"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="21"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="42"/>
-      <c r="B120" s="21"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="21"/>
-      <c r="G120" s="14" t="str">
+      <c r="H121" s="39"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="20"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="40"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H120" s="41"/>
-      <c r="I120" s="10"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="21"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="42"/>
-      <c r="B121" s="21"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="41"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="21"/>
-      <c r="G121" s="14" t="str">
+      <c r="H122" s="39"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="20"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="40"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H121" s="41"/>
-      <c r="I121" s="10"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="21"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="42"/>
-      <c r="B122" s="21"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="41"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="21"/>
-      <c r="G122" s="14" t="str">
+      <c r="H123" s="39"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="20"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="40"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="39"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H122" s="41"/>
-      <c r="I122" s="10"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="21"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="42"/>
-      <c r="B123" s="21"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="41"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="21"/>
-      <c r="G123" s="14" t="str">
+      <c r="H124" s="39"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="20"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="40"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H123" s="41"/>
-      <c r="I123" s="10"/>
-      <c r="J123" s="12"/>
-      <c r="K123" s="21"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="42"/>
-      <c r="B124" s="21"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="41"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="21"/>
-      <c r="G124" s="14" t="str">
+      <c r="H125" s="39"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="20"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="40"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="39"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H124" s="41"/>
-      <c r="I124" s="10"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="21"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="42"/>
-      <c r="B125" s="21"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="41"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="21"/>
-      <c r="G125" s="14" t="str">
+      <c r="H126" s="39"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="20"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="40"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="39"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H125" s="41"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="21"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="42"/>
-      <c r="B126" s="21"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="41"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="21"/>
-      <c r="G126" s="14" t="str">
+      <c r="H127" s="39"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="20"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="40"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="39"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H126" s="41"/>
-      <c r="I126" s="10"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="21"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="42"/>
-      <c r="B127" s="21"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="41"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="21"/>
-      <c r="G127" s="14" t="str">
+      <c r="H128" s="39"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="20"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="40"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="39"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H127" s="41"/>
-      <c r="I127" s="10"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="21"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="42"/>
-      <c r="B128" s="21"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="41"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="14" t="str">
+      <c r="H129" s="39"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="20"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="40"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H128" s="41"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="21"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="42"/>
-      <c r="B129" s="21"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="41"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="21"/>
-      <c r="G129" s="14" t="str">
+      <c r="H130" s="39"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H129" s="41"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="21"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="42"/>
-      <c r="B130" s="21"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="41"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="21"/>
-      <c r="G130" s="14" t="str">
+      <c r="H131" s="39"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="41"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H130" s="41"/>
-      <c r="I130" s="10"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="21"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="43"/>
-      <c r="B131" s="16"/>
-      <c r="C131" s="44"/>
-      <c r="D131" s="45"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="16"/>
-      <c r="G131" s="44" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="45"/>
-      <c r="I131" s="10"/>
-      <c r="J131" s="13"/>
-      <c r="K131" s="16"/>
+      <c r="H132" s="43"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5260,28 +5279,28 @@
     <col min="7" max="7" width="26.109375" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="39" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -5293,7 +5312,7 @@
       <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="44" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -5302,36 +5321,36 @@
       <c r="K2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="44" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>10.75</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>21.25</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="47">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="37">
+      <c r="J3" s="47"/>
+      <c r="K3" s="35">
         <f>J4-1</f>
         <v>-1</v>
       </c>
-      <c r="L3" s="47" t="str">
+      <c r="L3" s="45" t="str">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
         <v>---</v>
       </c>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="35"/>
+      <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
@@ -5341,972 +5360,972 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="I6" s="62" t="s">
+      <c r="G6" s="46"/>
+      <c r="I6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C7" s="39">
+      <c r="C7" s="37">
         <v>1</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="33">
         <v>2E-3</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="33">
         <v>0.125</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="I7" s="33" t="s">
+      <c r="G7" s="46"/>
+      <c r="I7" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="L7" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="39">
+      <c r="C8" s="37">
         <v>2</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="33">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="33">
         <v>0.25</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="33">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="36">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="36">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C9" s="39">
+      <c r="C9" s="37">
         <v>3</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="33">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="33">
         <v>0.375</v>
       </c>
       <c r="I9" s="1">
         <v>2</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="33">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="36">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="L9" s="38">
+      <c r="L9" s="36">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C10" s="39">
+      <c r="C10" s="37">
         <v>4</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="33">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="33">
         <v>0.5</v>
       </c>
       <c r="I10" s="1">
         <v>3</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="33">
         <v>0.125</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="36">
         <v>0.125</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10" s="36">
         <v>0.125</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C11" s="39">
+      <c r="C11" s="37">
         <v>5</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="33">
         <v>0.01</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="33">
         <v>0.625</v>
       </c>
       <c r="I11" s="1">
         <v>4</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="33">
         <v>0.16700000000000001</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="36">
         <v>0.16700000000000001</v>
       </c>
-      <c r="L11" s="38">
+      <c r="L11" s="36">
         <v>0.16700000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="39">
+      <c r="C12" s="37">
         <v>6</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="33">
         <v>1.2E-2</v>
       </c>
       <c r="E12" s="1">
         <v>6</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="33">
         <v>0.75</v>
       </c>
       <c r="I12" s="1">
         <v>5</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="33">
         <v>0.20800000000000002</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="36">
         <v>0.20800000000000002</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="36">
         <v>0.20800000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C13" s="39">
+      <c r="C13" s="37">
         <v>7</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E13" s="1">
         <v>7</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="33">
         <v>0.875</v>
       </c>
       <c r="I13" s="1">
         <v>6</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="33">
         <v>0.25</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="36">
         <v>0.25</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="36">
         <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C14" s="39">
+      <c r="C14" s="37">
         <v>8</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="33">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="E14" s="1">
         <v>8</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="33">
         <v>1</v>
       </c>
       <c r="I14" s="1">
         <v>7</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="33">
         <v>0.29199999999999998</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="36">
         <v>0.29199999999999998</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="36">
         <v>0.29199999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C15" s="39">
+      <c r="C15" s="37">
         <v>9</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="33">
         <v>1.9000000000000003E-2</v>
       </c>
       <c r="I15" s="1">
         <v>8</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="33">
         <v>0.33299999999999996</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="36">
         <v>0.33299999999999996</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="36">
         <v>0.33299999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="39">
+      <c r="C16" s="37">
         <v>10</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="33">
         <v>2.1000000000000005E-2</v>
       </c>
       <c r="I16" s="1">
         <v>9</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="33">
         <v>0.37499999999999994</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="36">
         <v>0.37499999999999994</v>
       </c>
-      <c r="L16" s="38">
+      <c r="L16" s="36">
         <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C17" s="39">
+      <c r="C17" s="37">
         <v>11</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="33">
         <v>2.3000000000000007E-2</v>
       </c>
       <c r="I17" s="1">
         <v>10</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="33">
         <v>0.41699999999999993</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="36">
         <v>0.41699999999999993</v>
       </c>
-      <c r="L17" s="38">
+      <c r="L17" s="36">
         <v>0.41699999999999993</v>
       </c>
     </row>
     <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="39">
+      <c r="C18" s="37">
         <v>12</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="33">
         <v>2.5000000000000008E-2</v>
       </c>
       <c r="G18"/>
       <c r="I18" s="1">
         <v>11</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="33">
         <v>0.45799999999999991</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="36">
         <v>0.45799999999999991</v>
       </c>
-      <c r="L18" s="38">
+      <c r="L18" s="36">
         <v>0.45799999999999991</v>
       </c>
     </row>
     <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="39">
+      <c r="C19" s="37">
         <v>13</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="33">
         <v>2.700000000000001E-2</v>
       </c>
       <c r="G19"/>
       <c r="I19" s="1">
         <v>12</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="33">
         <v>0.49999999999999989</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="36">
         <v>0.49999999999999989</v>
       </c>
-      <c r="L19" s="38">
+      <c r="L19" s="36">
         <v>0.49999999999999989</v>
       </c>
     </row>
     <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="39">
+      <c r="C20" s="37">
         <v>14</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="33">
         <v>2.9000000000000012E-2</v>
       </c>
       <c r="G20"/>
       <c r="I20" s="1">
         <v>13</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="33">
         <v>0.54199999999999993</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="36">
         <v>0.54199999999999993</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="36">
         <v>0.54199999999999993</v>
       </c>
     </row>
     <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="39">
+      <c r="C21" s="37">
         <v>15</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="33">
         <v>3.1000000000000014E-2</v>
       </c>
       <c r="G21"/>
       <c r="I21" s="1">
         <v>14</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="33">
         <v>0.58299999999999996</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="36">
         <v>0.58299999999999996</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21" s="36">
         <v>0.58299999999999996</v>
       </c>
     </row>
     <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="39">
+      <c r="C22" s="37">
         <v>16</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="33">
         <v>3.3000000000000015E-2</v>
       </c>
       <c r="G22"/>
       <c r="I22" s="1">
         <v>15</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="33">
         <v>0.625</v>
       </c>
-      <c r="K22" s="38">
+      <c r="K22" s="36">
         <v>0.625</v>
       </c>
-      <c r="L22" s="38">
+      <c r="L22" s="36">
         <v>0.625</v>
       </c>
     </row>
     <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="39">
+      <c r="C23" s="37">
         <v>17</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="33">
         <v>3.5000000000000017E-2</v>
       </c>
       <c r="G23"/>
       <c r="I23" s="1">
         <v>16</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="33">
         <v>0.66700000000000004</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="36">
         <v>0.66700000000000004</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="36">
         <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="39">
+      <c r="C24" s="37">
         <v>18</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="33">
         <v>3.7000000000000019E-2</v>
       </c>
       <c r="G24"/>
       <c r="I24" s="1">
         <v>17</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24" s="33">
         <v>0.70800000000000007</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="36">
         <v>0.70800000000000007</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L24" s="36">
         <v>0.70800000000000007</v>
       </c>
     </row>
     <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="39">
+      <c r="C25" s="37">
         <v>19</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="33">
         <v>0.04</v>
       </c>
       <c r="G25"/>
       <c r="I25" s="1">
         <v>18</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25" s="33">
         <v>0.75000000000000011</v>
       </c>
-      <c r="K25" s="38">
+      <c r="K25" s="36">
         <v>0.75000000000000011</v>
       </c>
-      <c r="L25" s="38">
+      <c r="L25" s="36">
         <v>0.75000000000000011</v>
       </c>
     </row>
     <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="39">
+      <c r="C26" s="37">
         <v>20</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="33">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G26"/>
       <c r="I26" s="1">
         <v>19</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26" s="33">
         <v>0.79200000000000015</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="36">
         <v>0.79200000000000015</v>
       </c>
-      <c r="L26" s="38">
+      <c r="L26" s="36">
         <v>0.79200000000000015</v>
       </c>
     </row>
     <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="39">
+      <c r="C27" s="37">
         <v>21</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="33">
         <v>4.4000000000000004E-2</v>
       </c>
       <c r="G27"/>
       <c r="I27" s="1">
         <v>20</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="33">
         <v>0.83300000000000018</v>
       </c>
-      <c r="K27" s="38">
+      <c r="K27" s="36">
         <v>0.83300000000000018</v>
       </c>
-      <c r="L27" s="38">
+      <c r="L27" s="36">
         <v>0.83300000000000018</v>
       </c>
     </row>
     <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="39">
+      <c r="C28" s="37">
         <v>22</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="33">
         <v>4.6000000000000006E-2</v>
       </c>
       <c r="G28"/>
       <c r="I28" s="1">
         <v>21</v>
       </c>
-      <c r="J28" s="35">
+      <c r="J28" s="33">
         <v>0.87500000000000022</v>
       </c>
-      <c r="K28" s="38">
+      <c r="K28" s="36">
         <v>0.87500000000000022</v>
       </c>
-      <c r="L28" s="38">
+      <c r="L28" s="36">
         <v>0.87500000000000022</v>
       </c>
     </row>
     <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="39">
+      <c r="C29" s="37">
         <v>23</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="33">
         <v>4.8000000000000008E-2</v>
       </c>
       <c r="G29"/>
       <c r="I29" s="1">
         <v>22</v>
       </c>
-      <c r="J29" s="35">
+      <c r="J29" s="33">
         <v>0.91700000000000026</v>
       </c>
-      <c r="K29" s="38">
+      <c r="K29" s="36">
         <v>0.91700000000000026</v>
       </c>
-      <c r="L29" s="38">
+      <c r="L29" s="36">
         <v>0.91700000000000026</v>
       </c>
     </row>
     <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="39">
+      <c r="C30" s="37">
         <v>24</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="33">
         <v>5.000000000000001E-2</v>
       </c>
       <c r="G30"/>
       <c r="I30" s="1">
         <v>23</v>
       </c>
-      <c r="J30" s="35">
+      <c r="J30" s="33">
         <v>0.9580000000000003</v>
       </c>
-      <c r="K30" s="38">
+      <c r="K30" s="36">
         <v>0.9580000000000003</v>
       </c>
-      <c r="L30" s="38">
+      <c r="L30" s="36">
         <v>0.9580000000000003</v>
       </c>
     </row>
     <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="39">
+      <c r="C31" s="37">
         <v>25</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="33">
         <v>5.2000000000000011E-2</v>
       </c>
       <c r="G31"/>
       <c r="I31" s="1">
         <v>24</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31" s="33">
         <v>1.0000000000000002</v>
       </c>
-      <c r="K31" s="38">
+      <c r="K31" s="36">
         <v>1.0000000000000002</v>
       </c>
-      <c r="L31" s="38">
+      <c r="L31" s="36">
         <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="39">
+      <c r="C32" s="37">
         <v>26</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="33">
         <v>5.4000000000000013E-2</v>
       </c>
       <c r="G32"/>
       <c r="I32" s="1">
         <v>25</v>
       </c>
-      <c r="J32" s="35">
+      <c r="J32" s="33">
         <v>1.0420000000000003</v>
       </c>
-      <c r="K32" s="38">
+      <c r="K32" s="36">
         <v>1.0420000000000003</v>
       </c>
-      <c r="L32" s="38">
+      <c r="L32" s="36">
         <v>1.0420000000000003</v>
       </c>
     </row>
     <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="39">
+      <c r="C33" s="37">
         <v>27</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="33">
         <v>5.6000000000000015E-2</v>
       </c>
       <c r="G33"/>
       <c r="I33" s="1">
         <v>26</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J33" s="33">
         <v>1.0830000000000002</v>
       </c>
-      <c r="K33" s="38">
+      <c r="K33" s="36">
         <v>1.0830000000000002</v>
       </c>
-      <c r="L33" s="38">
+      <c r="L33" s="36">
         <v>1.0830000000000002</v>
       </c>
     </row>
     <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="39">
+      <c r="C34" s="37">
         <v>28</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="33">
         <v>5.8000000000000017E-2</v>
       </c>
       <c r="G34"/>
       <c r="I34" s="1">
         <v>27</v>
       </c>
-      <c r="J34" s="35">
+      <c r="J34" s="33">
         <v>1.1250000000000002</v>
       </c>
-      <c r="K34" s="38">
+      <c r="K34" s="36">
         <v>1.1250000000000002</v>
       </c>
-      <c r="L34" s="38">
+      <c r="L34" s="36">
         <v>1.1250000000000002</v>
       </c>
     </row>
     <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="39">
+      <c r="C35" s="37">
         <v>29</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="33">
         <v>6.0000000000000019E-2</v>
       </c>
       <c r="G35"/>
       <c r="I35" s="1">
         <v>28</v>
       </c>
-      <c r="J35" s="35">
+      <c r="J35" s="33">
         <v>1.1670000000000003</v>
       </c>
-      <c r="K35" s="38">
+      <c r="K35" s="36">
         <v>1.1670000000000003</v>
       </c>
-      <c r="L35" s="38">
+      <c r="L35" s="36">
         <v>1.1670000000000003</v>
       </c>
     </row>
     <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="39">
+      <c r="C36" s="37">
         <v>30</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="33">
         <v>6.200000000000002E-2</v>
       </c>
       <c r="G36"/>
       <c r="I36" s="1">
         <v>29</v>
       </c>
-      <c r="J36" s="35">
+      <c r="J36" s="33">
         <v>1.2080000000000002</v>
       </c>
-      <c r="K36" s="38">
+      <c r="K36" s="36">
         <v>1.2080000000000002</v>
       </c>
-      <c r="L36" s="38">
+      <c r="L36" s="36">
         <v>1.2080000000000002</v>
       </c>
     </row>
     <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="39">
+      <c r="C37" s="37">
         <v>31</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="33">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="G37"/>
       <c r="I37" s="1">
         <v>30</v>
       </c>
-      <c r="J37" s="35">
+      <c r="J37" s="33">
         <v>1.2500000000000002</v>
       </c>
-      <c r="K37" s="38">
+      <c r="K37" s="36">
         <v>1.2500000000000002</v>
       </c>
-      <c r="L37" s="38">
+      <c r="L37" s="36">
         <v>1.2500000000000002</v>
       </c>
     </row>
     <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="39">
+      <c r="C38" s="37">
         <v>32</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="33">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G38"/>
     </row>
     <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="39">
+      <c r="C39" s="37">
         <v>33</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="33">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="G39"/>
     </row>
     <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="39">
+      <c r="C40" s="37">
         <v>34</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="33">
         <v>7.1000000000000008E-2</v>
       </c>
       <c r="G40"/>
     </row>
     <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="39">
+      <c r="C41" s="37">
         <v>35</v>
       </c>
-      <c r="D41" s="35">
+      <c r="D41" s="33">
         <v>7.3000000000000009E-2</v>
       </c>
       <c r="G41"/>
     </row>
     <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="39">
+      <c r="C42" s="37">
         <v>36</v>
       </c>
-      <c r="D42" s="35">
+      <c r="D42" s="33">
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="G42"/>
     </row>
     <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="39">
+      <c r="C43" s="37">
         <v>37</v>
       </c>
-      <c r="D43" s="35">
+      <c r="D43" s="33">
         <v>7.7000000000000013E-2</v>
       </c>
       <c r="G43"/>
     </row>
     <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="39">
+      <c r="C44" s="37">
         <v>38</v>
       </c>
-      <c r="D44" s="35">
+      <c r="D44" s="33">
         <v>7.9000000000000015E-2</v>
       </c>
       <c r="G44"/>
     </row>
     <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="39">
+      <c r="C45" s="37">
         <v>39</v>
       </c>
-      <c r="D45" s="35">
+      <c r="D45" s="33">
         <v>8.1000000000000016E-2</v>
       </c>
       <c r="G45"/>
     </row>
     <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="39">
+      <c r="C46" s="37">
         <v>40</v>
       </c>
-      <c r="D46" s="35">
+      <c r="D46" s="33">
         <v>8.3000000000000018E-2</v>
       </c>
       <c r="G46"/>
     </row>
     <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="39">
+      <c r="C47" s="37">
         <v>41</v>
       </c>
-      <c r="D47" s="35">
+      <c r="D47" s="33">
         <v>8.500000000000002E-2</v>
       </c>
       <c r="G47"/>
     </row>
     <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="39">
+      <c r="C48" s="37">
         <v>42</v>
       </c>
-      <c r="D48" s="35">
+      <c r="D48" s="33">
         <v>8.7000000000000022E-2</v>
       </c>
       <c r="G48"/>
     </row>
     <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="39">
+      <c r="C49" s="37">
         <v>43</v>
       </c>
-      <c r="D49" s="35">
+      <c r="D49" s="33">
         <v>0.09</v>
       </c>
       <c r="G49"/>
     </row>
     <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="39">
+      <c r="C50" s="37">
         <v>44</v>
       </c>
-      <c r="D50" s="35">
+      <c r="D50" s="33">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="G50"/>
     </row>
     <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="39">
+      <c r="C51" s="37">
         <v>45</v>
       </c>
-      <c r="D51" s="35">
+      <c r="D51" s="33">
         <v>9.4E-2</v>
       </c>
       <c r="G51"/>
     </row>
     <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="39">
+      <c r="C52" s="37">
         <v>46</v>
       </c>
-      <c r="D52" s="35">
+      <c r="D52" s="33">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="G52"/>
     </row>
     <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="39">
+      <c r="C53" s="37">
         <v>47</v>
       </c>
-      <c r="D53" s="35">
+      <c r="D53" s="33">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="G53"/>
     </row>
     <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="39">
+      <c r="C54" s="37">
         <v>48</v>
       </c>
-      <c r="D54" s="35">
+      <c r="D54" s="33">
         <v>0.1</v>
       </c>
       <c r="G54"/>
     </row>
     <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="39">
+      <c r="C55" s="37">
         <v>49</v>
       </c>
-      <c r="D55" s="35">
+      <c r="D55" s="33">
         <v>0.10200000000000001</v>
       </c>
       <c r="G55"/>
     </row>
     <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="39">
+      <c r="C56" s="37">
         <v>50</v>
       </c>
-      <c r="D56" s="35">
+      <c r="D56" s="33">
         <v>0.10400000000000001</v>
       </c>
       <c r="G56"/>
     </row>
     <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="39">
+      <c r="C57" s="37">
         <v>51</v>
       </c>
-      <c r="D57" s="35">
+      <c r="D57" s="33">
         <v>0.10600000000000001</v>
       </c>
       <c r="G57"/>
     </row>
     <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="39">
+      <c r="C58" s="37">
         <v>52</v>
       </c>
-      <c r="D58" s="35">
+      <c r="D58" s="33">
         <v>0.10800000000000001</v>
       </c>
       <c r="G58"/>
     </row>
     <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="39">
+      <c r="C59" s="37">
         <v>53</v>
       </c>
-      <c r="D59" s="35">
+      <c r="D59" s="33">
         <v>0.11000000000000001</v>
       </c>
       <c r="G59"/>
     </row>
     <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="39">
+      <c r="C60" s="37">
         <v>54</v>
       </c>
-      <c r="D60" s="35">
+      <c r="D60" s="33">
         <v>0.11200000000000002</v>
       </c>
       <c r="G60"/>
     </row>
     <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="39">
+      <c r="C61" s="37">
         <v>55</v>
       </c>
-      <c r="D61" s="35">
+      <c r="D61" s="33">
         <v>0.115</v>
       </c>
       <c r="G61"/>
     </row>
     <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="39">
+      <c r="C62" s="37">
         <v>56</v>
       </c>
-      <c r="D62" s="35">
+      <c r="D62" s="33">
         <v>0.11700000000000001</v>
       </c>
       <c r="G62"/>
     </row>
     <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="39">
+      <c r="C63" s="37">
         <v>57</v>
       </c>
-      <c r="D63" s="35">
+      <c r="D63" s="33">
         <v>0.11900000000000001</v>
       </c>
       <c r="G63"/>
     </row>
     <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="39">
+      <c r="C64" s="37">
         <v>58</v>
       </c>
-      <c r="D64" s="35">
+      <c r="D64" s="33">
         <v>0.12100000000000001</v>
       </c>
       <c r="G64"/>
     </row>
     <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="39">
+      <c r="C65" s="37">
         <v>59</v>
       </c>
-      <c r="D65" s="35">
+      <c r="D65" s="33">
         <v>0.12300000000000001</v>
       </c>
       <c r="G65"/>
     </row>
     <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="39">
+      <c r="C66" s="37">
         <v>60</v>
       </c>
-      <c r="D66" s="35">
+      <c r="D66" s="33">
         <v>0.125</v>
       </c>
       <c r="G66"/>

--- a/DOGELIO, CHRISTIAN.xlsx
+++ b/DOGELIO, CHRISTIAN.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C148478-C9F2-4584-8C8C-83F61AE0DBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="CONVERTION" sheetId="3" r:id="rId3"/>
+    <sheet name="2018 LEAVE CREDITS" sheetId="5" r:id="rId2"/>
+    <sheet name="2017 LEAVE BALANCE" sheetId="1" r:id="rId3"/>
+    <sheet name="CONVERTION" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="BALANCE_1" localSheetId="2">[1]!Table1[[#Headers],[BALANCE]]</definedName>
+    <definedName name="BALANCE_1" localSheetId="1">Table13[[#Headers],[BALANCE]]</definedName>
+    <definedName name="BALANCE_1" localSheetId="3">[1]!Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -266,11 +268,14 @@
   <si>
     <t>11/21-23/2022</t>
   </si>
+  <si>
+    <t>2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -683,7 +688,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="30">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -873,27 +878,27 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -911,7 +916,247 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -959,7 +1204,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1002,7 +1247,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1066,7 +1311,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1126,7 +1371,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1192,7 +1437,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1255,7 +1500,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1353,7 +1598,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1412,7 +1657,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1477,7 +1722,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1520,7 +1765,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1595,7 +1840,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1781,7 +2026,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1847,7 +2092,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1905,7 +2150,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1971,7 +2216,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2027,7 +2272,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2102,7 +2347,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2145,7 +2390,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2211,7 +2456,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2267,7 +2512,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2363,25 +2608,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K128" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+      <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
+      <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+      <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altText="BALANCE_2"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K78" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <tableColumns count="11">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2688,7 +2963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2698,7 +2973,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2706,34 +2981,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A70" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
+      <selection activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2754,7 +3029,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2774,7 +3049,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2796,7 +3071,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2804,7 +3079,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2817,7 +3092,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2834,7 +3109,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2869,7 +3144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2877,23 +3152,23 @@
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
       <c r="E9" s="13">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>48.75</v>
+        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
+        <v>42.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>86.25</v>
+        <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
+        <v>76.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -2905,7 +3180,7 @@
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H10" s="39"/>
@@ -2915,13 +3190,11 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="B11" s="20"/>
       <c r="C11" s="13">
         <v>1.25</v>
       </c>
@@ -2929,23 +3202,19 @@
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
       <c r="G11" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="49">
-        <v>43126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K11" s="49"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="B12" s="20"/>
       <c r="C12" s="13">
         <v>1.25</v>
       </c>
@@ -2953,19 +3222,15 @@
       <c r="E12" s="9"/>
       <c r="F12" s="20"/>
       <c r="G12" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H12" s="39">
-        <v>2</v>
-      </c>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H12" s="39"/>
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -2977,7 +3242,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="20"/>
       <c r="G13" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H13" s="39"/>
@@ -2985,7 +3250,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -2997,7 +3262,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="20"/>
       <c r="G14" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H14" s="39"/>
@@ -3005,7 +3270,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3017,7 +3282,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
       <c r="G15" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H15" s="39"/>
@@ -3025,7 +3290,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3037,7 +3302,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="15"/>
       <c r="G16" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H16" s="43"/>
@@ -3045,7 +3310,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3057,7 +3322,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="20"/>
       <c r="G17" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H17" s="39"/>
@@ -3065,7 +3330,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3077,7 +3342,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="20"/>
       <c r="G18" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H18" s="39"/>
@@ -3085,7 +3350,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3097,7 +3362,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="20"/>
       <c r="G19" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H19" s="39"/>
@@ -3105,7 +3370,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3117,7 +3382,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
       <c r="G20" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H20" s="39"/>
@@ -3125,7 +3390,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3137,7 +3402,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
       <c r="G21" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H21" s="39"/>
@@ -3145,7 +3410,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3161,7 +3426,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
       <c r="G22" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H22" s="39"/>
@@ -3169,7 +3434,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>47</v>
       </c>
@@ -3179,7 +3444,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H23" s="39"/>
@@ -3187,7 +3452,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3199,7 +3464,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
       <c r="G24" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H24" s="39"/>
@@ -3207,7 +3472,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3219,7 +3484,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
       <c r="G25" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H25" s="39"/>
@@ -3227,13 +3492,11 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="B26" s="20"/>
       <c r="C26" s="13">
         <v>1.25</v>
       </c>
@@ -3241,43 +3504,35 @@
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
       <c r="G26" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="B27" s="20"/>
       <c r="C27" s="13">
         <v>1.25</v>
       </c>
-      <c r="D27" s="39">
-        <v>4</v>
-      </c>
+      <c r="D27" s="39"/>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
       <c r="G27" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3289,7 +3544,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
       <c r="G28" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H28" s="39"/>
@@ -3297,7 +3552,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3309,7 +3564,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
       <c r="G29" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H29" s="39"/>
@@ -3317,7 +3572,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3329,7 +3584,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
       <c r="G30" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H30" s="39"/>
@@ -3337,7 +3592,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3353,7 +3608,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
       <c r="G31" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H31" s="39"/>
@@ -3361,7 +3616,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3373,7 +3628,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
       <c r="G32" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H32" s="39"/>
@@ -3381,57 +3636,55 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C33" s="13">
         <v>1.25</v>
       </c>
-      <c r="D33" s="39"/>
+      <c r="D33" s="39">
+        <v>5</v>
+      </c>
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
       <c r="G33" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H33" s="39">
-        <v>2</v>
-      </c>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H33" s="39"/>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
       <c r="K33" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="39">
-        <v>5</v>
-      </c>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="40">
+        <v>43770</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D34" s="39"/>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G34" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H34" s="39"/>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="20"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13">
@@ -3441,7 +3694,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
       <c r="G35" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H35" s="39"/>
@@ -3449,47 +3702,47 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="40">
-        <v>43800</v>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="48" t="s">
+        <v>57</v>
       </c>
       <c r="B36" s="20"/>
-      <c r="C36" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C36" s="13"/>
       <c r="D36" s="39"/>
       <c r="E36" s="9"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G36" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H36" s="39"/>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="48" t="s">
-        <v>57</v>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="40">
+        <v>43831</v>
       </c>
       <c r="B37" s="20"/>
-      <c r="C37" s="13"/>
+      <c r="C37" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D37" s="39"/>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G37" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H37" s="39"/>
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13">
@@ -3499,7 +3752,7 @@
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
       <c r="G38" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H38" s="39"/>
@@ -3507,13 +3760,11 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
-        <v>43862</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>58</v>
-      </c>
+        <v>43891</v>
+      </c>
+      <c r="B39" s="20"/>
       <c r="C39" s="13">
         <v>1.25</v>
       </c>
@@ -3521,19 +3772,17 @@
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
       <c r="G39" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K39" s="20"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13">
@@ -3543,7 +3792,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
       <c r="G40" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H40" s="39"/>
@@ -3551,9 +3800,9 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13">
@@ -3563,7 +3812,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
       <c r="G41" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H41" s="39"/>
@@ -3571,9 +3820,9 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13">
@@ -3583,7 +3832,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
       <c r="G42" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H42" s="39"/>
@@ -3591,9 +3840,9 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13">
@@ -3603,7 +3852,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
       <c r="G43" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H43" s="39"/>
@@ -3611,9 +3860,9 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
@@ -3623,7 +3872,7 @@
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
       <c r="G44" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H44" s="39"/>
@@ -3631,9 +3880,9 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13">
@@ -3643,7 +3892,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
       <c r="G45" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H45" s="39"/>
@@ -3651,9 +3900,9 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13">
@@ -3663,7 +3912,7 @@
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
       <c r="G46" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H46" s="39"/>
@@ -3671,9 +3920,9 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13">
@@ -3683,7 +3932,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
       <c r="G47" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H47" s="39"/>
@@ -3691,19 +3940,23 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
-        <v>44136</v>
-      </c>
-      <c r="B48" s="20"/>
+        <v>44166</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C48" s="13">
         <v>1.25</v>
       </c>
-      <c r="D48" s="39"/>
+      <c r="D48" s="39">
+        <v>5</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
       <c r="G48" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H48" s="39"/>
@@ -3711,51 +3964,47 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="40">
-        <v>44166</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D49" s="39">
-        <v>5</v>
-      </c>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="20"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="39"/>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G49" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H49" s="39"/>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="48" t="s">
-        <v>60</v>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="40">
+        <v>44197</v>
       </c>
       <c r="B50" s="20"/>
-      <c r="C50" s="13"/>
+      <c r="C50" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D50" s="39"/>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G50" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H50" s="39"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13">
@@ -3765,7 +4014,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
       <c r="G51" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H51" s="39"/>
@@ -3773,9 +4022,9 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13">
@@ -3785,7 +4034,7 @@
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
       <c r="G52" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H52" s="39"/>
@@ -3793,9 +4042,9 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13">
@@ -3805,7 +4054,7 @@
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
       <c r="G53" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H53" s="39"/>
@@ -3813,9 +4062,9 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13">
@@ -3825,7 +4074,7 @@
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
       <c r="G54" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H54" s="39"/>
@@ -3833,9 +4082,9 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13">
@@ -3845,7 +4094,7 @@
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
       <c r="G55" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H55" s="39"/>
@@ -3853,9 +4102,9 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -3865,7 +4114,7 @@
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
       <c r="G56" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H56" s="39"/>
@@ -3873,9 +4122,9 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
@@ -3885,7 +4134,7 @@
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
       <c r="G57" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H57" s="39"/>
@@ -3893,9 +4142,9 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13">
@@ -3905,7 +4154,7 @@
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
       <c r="G58" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H58" s="39"/>
@@ -3913,9 +4162,9 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13">
@@ -3925,7 +4174,7 @@
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
       <c r="G59" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H59" s="39"/>
@@ -3933,9 +4182,9 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13">
@@ -3945,7 +4194,7 @@
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
       <c r="G60" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H60" s="39"/>
@@ -3953,19 +4202,23 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>44501</v>
-      </c>
-      <c r="B61" s="20"/>
+        <v>44531</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C61" s="13">
         <v>1.25</v>
       </c>
-      <c r="D61" s="39"/>
+      <c r="D61" s="39">
+        <v>5</v>
+      </c>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
       <c r="G61" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H61" s="39"/>
@@ -3973,51 +4226,47 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="40">
-        <v>44531</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C62" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D62" s="39">
-        <v>5</v>
-      </c>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="20"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="39"/>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G62" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="48" t="s">
-        <v>61</v>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="40">
+        <v>44562</v>
       </c>
       <c r="B63" s="20"/>
-      <c r="C63" s="13"/>
+      <c r="C63" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G63" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13">
@@ -4027,7 +4276,7 @@
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
       <c r="G64" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H64" s="39"/>
@@ -4035,9 +4284,9 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
@@ -4047,7 +4296,7 @@
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
       <c r="G65" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H65" s="39"/>
@@ -4055,81 +4304,81 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>44621</v>
-      </c>
-      <c r="B66" s="20"/>
+        <v>44652</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
-      <c r="D66" s="39"/>
+      <c r="D66" s="39">
+        <v>4</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="20"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K66" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>44652</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>50</v>
-      </c>
+        <v>44682</v>
+      </c>
+      <c r="B67" s="20"/>
       <c r="C67" s="13">
         <v>1.25</v>
       </c>
-      <c r="D67" s="39">
-        <v>4</v>
-      </c>
+      <c r="D67" s="39"/>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H67" s="39"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K67" s="49"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C68" s="13">
         <v>1.25</v>
       </c>
-      <c r="D68" s="39"/>
+      <c r="D68" s="39">
+        <v>2</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
       <c r="G68" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H68" s="39">
-        <v>1</v>
-      </c>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H68" s="39"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="49">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B69" s="20" t="s">
         <v>52</v>
@@ -4143,67 +4392,65 @@
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
       <c r="G69" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
       <c r="K69" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="40"/>
-      <c r="B70" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C70" s="13"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="40">
+        <v>44774</v>
+      </c>
+      <c r="B70" s="20"/>
+      <c r="C70" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D70" s="39"/>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H70" s="39">
-        <v>2</v>
-      </c>
+      <c r="G70" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H70" s="39"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="20"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>44743</v>
+        <v>44805</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
       <c r="D71" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
       <c r="G71" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="49">
+        <v>44824</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>44774</v>
+        <v>44835</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13">
@@ -4213,7 +4460,7 @@
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H72" s="39"/>
@@ -4221,141 +4468,129 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>44805</v>
+        <v>44866</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C73" s="13">
         <v>1.25</v>
       </c>
-      <c r="D73" s="39"/>
+      <c r="D73" s="39">
+        <v>2</v>
+      </c>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
       <c r="G73" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
       <c r="K73" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="40"/>
-      <c r="B74" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="39">
-        <v>1</v>
-      </c>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B74" s="20"/>
+      <c r="C74" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D74" s="39"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G74" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="49">
-        <v>44824</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="40">
-        <v>44835</v>
+      <c r="K74" s="20"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="48" t="s">
+        <v>74</v>
       </c>
       <c r="B75" s="20"/>
-      <c r="C75" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C75" s="13"/>
       <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G75" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>44866</v>
+        <v>44927</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C76" s="13">
         <v>1.25</v>
       </c>
       <c r="D76" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
       <c r="G76" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K76" s="49">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
-      <c r="B77" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="B77" s="20"/>
       <c r="C77" s="13"/>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
       <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H77" s="39">
-        <v>3</v>
-      </c>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40">
-        <v>44896</v>
-      </c>
+      <c r="K77" s="20"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="40"/>
       <c r="B78" s="20"/>
-      <c r="C78" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C78" s="13"/>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G78" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4363,7 +4598,7 @@
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
       <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H79" s="39"/>
@@ -4371,7 +4606,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4379,7 +4614,7 @@
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
       <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H80" s="39"/>
@@ -4387,7 +4622,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4395,7 +4630,7 @@
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
       <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H81" s="39"/>
@@ -4403,7 +4638,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4411,7 +4646,7 @@
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
       <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H82" s="39"/>
@@ -4419,7 +4654,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4427,7 +4662,7 @@
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
       <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H83" s="39"/>
@@ -4435,7 +4670,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4443,7 +4678,7 @@
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
       <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H84" s="39"/>
@@ -4451,15 +4686,15 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="23"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
       <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H85" s="39"/>
@@ -4467,15 +4702,17 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
       <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H86" s="39"/>
@@ -4483,7 +4720,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4491,7 +4728,7 @@
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
       <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H87" s="39"/>
@@ -4499,7 +4736,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4507,7 +4744,7 @@
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
       <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H88" s="39"/>
@@ -4515,15 +4752,15 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="23"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
       <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H89" s="39"/>
@@ -4531,17 +4768,15 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="23" t="s">
-        <v>32</v>
-      </c>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
       <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H90" s="39"/>
@@ -4549,7 +4784,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4557,7 +4792,7 @@
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
       <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H91" s="39"/>
@@ -4565,7 +4800,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4573,7 +4808,7 @@
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
       <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H92" s="39"/>
@@ -4581,7 +4816,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4589,7 +4824,7 @@
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
       <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H93" s="39"/>
@@ -4597,7 +4832,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4605,7 +4840,7 @@
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
       <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H94" s="39"/>
@@ -4613,7 +4848,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4621,7 +4856,7 @@
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
       <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H95" s="39"/>
@@ -4629,7 +4864,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4637,7 +4872,7 @@
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
       <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H96" s="39"/>
@@ -4645,7 +4880,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4653,7 +4888,7 @@
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
       <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H97" s="39"/>
@@ -4661,7 +4896,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4669,7 +4904,7 @@
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
       <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H98" s="39"/>
@@ -4677,7 +4912,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4685,7 +4920,7 @@
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
       <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H99" s="39"/>
@@ -4693,7 +4928,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4701,7 +4936,7 @@
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
       <c r="G100" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H100" s="39"/>
@@ -4709,7 +4944,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4717,7 +4952,7 @@
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
       <c r="G101" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H101" s="39"/>
@@ -4725,7 +4960,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4733,7 +4968,7 @@
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
       <c r="G102" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H102" s="39"/>
@@ -4741,7 +4976,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4749,7 +4984,7 @@
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
       <c r="G103" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H103" s="39"/>
@@ -4757,7 +4992,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4765,7 +5000,7 @@
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
       <c r="G104" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H104" s="39"/>
@@ -4773,7 +5008,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4781,7 +5016,7 @@
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
       <c r="G105" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H105" s="39"/>
@@ -4789,7 +5024,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4797,7 +5032,7 @@
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
       <c r="G106" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H106" s="39"/>
@@ -4805,7 +5040,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4813,7 +5048,7 @@
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
       <c r="G107" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H107" s="39"/>
@@ -4821,7 +5056,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4829,7 +5064,7 @@
       <c r="E108" s="9"/>
       <c r="F108" s="20"/>
       <c r="G108" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H108" s="39"/>
@@ -4837,7 +5072,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4845,7 +5080,7 @@
       <c r="E109" s="9"/>
       <c r="F109" s="20"/>
       <c r="G109" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H109" s="39"/>
@@ -4853,7 +5088,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4861,7 +5096,7 @@
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
       <c r="G110" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H110" s="39"/>
@@ -4869,7 +5104,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4877,7 +5112,7 @@
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
       <c r="G111" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H111" s="39"/>
@@ -4885,7 +5120,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4893,7 +5128,7 @@
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
       <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H112" s="39"/>
@@ -4901,7 +5136,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4909,7 +5144,7 @@
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
       <c r="G113" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H113" s="39"/>
@@ -4917,7 +5152,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4925,7 +5160,7 @@
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
       <c r="G114" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H114" s="39"/>
@@ -4933,7 +5168,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4941,7 +5176,7 @@
       <c r="E115" s="9"/>
       <c r="F115" s="20"/>
       <c r="G115" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H115" s="39"/>
@@ -4949,7 +5184,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4957,7 +5192,7 @@
       <c r="E116" s="9"/>
       <c r="F116" s="20"/>
       <c r="G116" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H116" s="39"/>
@@ -4965,7 +5200,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4973,7 +5208,7 @@
       <c r="E117" s="9"/>
       <c r="F117" s="20"/>
       <c r="G117" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H117" s="39"/>
@@ -4981,7 +5216,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4989,7 +5224,7 @@
       <c r="E118" s="9"/>
       <c r="F118" s="20"/>
       <c r="G118" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H118" s="39"/>
@@ -4997,7 +5232,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5005,7 +5240,7 @@
       <c r="E119" s="9"/>
       <c r="F119" s="20"/>
       <c r="G119" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H119" s="39"/>
@@ -5013,7 +5248,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5021,7 +5256,7 @@
       <c r="E120" s="9"/>
       <c r="F120" s="20"/>
       <c r="G120" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H120" s="39"/>
@@ -5029,7 +5264,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5037,7 +5272,7 @@
       <c r="E121" s="9"/>
       <c r="F121" s="20"/>
       <c r="G121" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H121" s="39"/>
@@ -5045,7 +5280,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5053,7 +5288,7 @@
       <c r="E122" s="9"/>
       <c r="F122" s="20"/>
       <c r="G122" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H122" s="39"/>
@@ -5061,7 +5296,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5069,7 +5304,7 @@
       <c r="E123" s="9"/>
       <c r="F123" s="20"/>
       <c r="G123" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H123" s="39"/>
@@ -5077,7 +5312,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5085,7 +5320,7 @@
       <c r="E124" s="9"/>
       <c r="F124" s="20"/>
       <c r="G124" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H124" s="39"/>
@@ -5093,7 +5328,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5101,7 +5336,7 @@
       <c r="E125" s="9"/>
       <c r="F125" s="20"/>
       <c r="G125" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H125" s="39"/>
@@ -5109,7 +5344,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5117,7 +5352,7 @@
       <c r="E126" s="9"/>
       <c r="F126" s="20"/>
       <c r="G126" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H126" s="39"/>
@@ -5125,7 +5360,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5133,7 +5368,7 @@
       <c r="E127" s="9"/>
       <c r="F127" s="20"/>
       <c r="G127" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H127" s="39"/>
@@ -5141,110 +5376,46 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="40"/>
-      <c r="B128" s="20"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="39"/>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="41"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="42"/>
+      <c r="D128" s="43"/>
       <c r="E128" s="9"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H128" s="39"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H128" s="43"/>
       <c r="I128" s="9"/>
-      <c r="J128" s="11"/>
-      <c r="K128" s="20"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="40"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="39"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H129" s="39"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="11"/>
-      <c r="K129" s="20"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="40"/>
-      <c r="B130" s="20"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="39"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="20"/>
-      <c r="G130" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="39"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="11"/>
-      <c r="K130" s="20"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="40"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="39"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="39"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="20"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="41"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="43"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="43"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="15"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
     <mergeCell ref="G7:J7"/>
-    <mergeCell ref="C7:F7"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+      <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
-      <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="89" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -5262,28 +5433,1460 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:K78"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="57">
+        <v>42583</v>
+      </c>
+      <c r="G3" s="52"/>
+      <c r="H3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="52"/>
+      <c r="H4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="H5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="27"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>0.75</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="13">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>11.25</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>43101</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="49">
+        <v>43126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="40">
+        <v>43132</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H12" s="39">
+        <v>2</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="40">
+        <v>43525</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="40">
+        <v>43556</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="39">
+        <v>4</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="40">
+        <v>43739</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H16" s="39">
+        <v>2</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="39">
+        <v>5</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="40">
+        <v>43862</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="40">
+        <v>44682</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H21" s="39">
+        <v>1</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="49">
+        <v>44706</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="40">
+        <v>44713</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H22" s="39">
+        <v>2</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="40">
+        <v>44805</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H23" s="39"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="40"/>
+      <c r="B24" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H24" s="39">
+        <v>3</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="39">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="49">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="40"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H27" s="39"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H29" s="39"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="20"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H31" s="39"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="20"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H32" s="39"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="20"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H33" s="39"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="20"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="40"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H34" s="39"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="20"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H35" s="39"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="20"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H36" s="39"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="20"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="40"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H37" s="39"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="20"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="40"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H38" s="39"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="20"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H39" s="39"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="20"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="40"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H40" s="39"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="20"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H41" s="39"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="20"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="40"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H42" s="39"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="20"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="40"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H43" s="39"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="20"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="40"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H44" s="39"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="20"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="40"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H45" s="39"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="20"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="40"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H46" s="39"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="20"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="40"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H47" s="39"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="20"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="40"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H48" s="39"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="20"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="40"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H49" s="39"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="20"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="40"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H50" s="39"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="20"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="40"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H51" s="39"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="20"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="40"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H52" s="39"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="20"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="40"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H53" s="39"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="20"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="40"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H54" s="39"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="20"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="40"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H55" s="39"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="20"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="40"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H56" s="39"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="20"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="40"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H57" s="39"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="20"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="40"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H58" s="39"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="20"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="40"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H59" s="39"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="20"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="40"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H60" s="39"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="20"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="40"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H61" s="39"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="20"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="40"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H62" s="39"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="20"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="40"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H63" s="39"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="20"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="40"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H64" s="39"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="20"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="40"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H65" s="39"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="20"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="40"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H66" s="39"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="20"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="40"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H67" s="39"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="20"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="40"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H68" s="39"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="20"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="40"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H69" s="39"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="20"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="40"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H70" s="39"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="20"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="40"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H71" s="39"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="20"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="40"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H72" s="39"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="20"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="40"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H73" s="39"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="20"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="40"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H74" s="39"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="20"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="40"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H75" s="39"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="20"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="40"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H76" s="39"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="20"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="40"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H77" s="39"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="20"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="41"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H78" s="43"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+      <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+      <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="89" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
+CITY OF TAGAYTAY
+EMPLOYEE'S LEAVE CARD</oddHeader>
+    <oddFooter>&amp;L
+PREPARED BY: ___________________
+DATE: &amp;D, &amp;T&amp;C
+CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
+                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5296,7 +6899,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5325,7 +6928,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>10.75</v>
       </c>
@@ -5349,17 +6952,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5380,7 +6983,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5407,7 +7010,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5433,7 +7036,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5459,7 +7062,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5485,7 +7088,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5511,7 +7114,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5537,7 +7140,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5563,7 +7166,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5589,7 +7192,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5609,7 +7212,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5629,7 +7232,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5649,7 +7252,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5670,7 +7273,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5691,7 +7294,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5712,7 +7315,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5733,7 +7336,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5754,7 +7357,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5775,7 +7378,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5796,7 +7399,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5817,7 +7420,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5838,7 +7441,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5859,7 +7462,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5880,7 +7483,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5901,7 +7504,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5922,7 +7525,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5943,7 +7546,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5964,7 +7567,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5985,7 +7588,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6006,7 +7609,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6027,7 +7630,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6048,7 +7651,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6069,7 +7672,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6078,7 +7681,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6087,7 +7690,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6096,7 +7699,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6105,7 +7708,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6114,7 +7717,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6123,7 +7726,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6132,7 +7735,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6141,7 +7744,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6150,7 +7753,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6159,7 +7762,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6168,7 +7771,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6177,7 +7780,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6186,7 +7789,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6195,7 +7798,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6204,7 +7807,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6213,7 +7816,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6222,7 +7825,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6231,7 +7834,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6240,7 +7843,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6249,7 +7852,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6258,7 +7861,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6267,7 +7870,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6276,7 +7879,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6285,7 +7888,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6294,7 +7897,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6303,7 +7906,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6312,7 +7915,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6321,7 +7924,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6330,7 +7933,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/DOGELIO, CHRISTIAN.xlsx
+++ b/DOGELIO, CHRISTIAN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D432566D-8225-45F9-8CCF-61090E3E4056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,25 +28,17 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
   <si>
     <t>PERIOD</t>
   </si>
@@ -271,11 +264,14 @@
   <si>
     <t>2023</t>
   </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -651,9 +647,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -663,17 +656,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -878,27 +874,27 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -1119,27 +1115,27 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -1204,7 +1200,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1247,7 +1243,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1311,7 +1307,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1371,7 +1367,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +1433,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1500,7 +1496,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,7 +1594,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1657,7 +1653,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1722,7 +1718,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1765,7 +1761,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1840,7 +1836,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2026,7 +2022,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2088,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2150,7 +2146,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,7 +2212,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2272,7 +2268,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2347,7 +2343,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2386,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2456,7 +2452,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2512,7 +2508,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2608,25 +2604,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K128" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K128" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2638,25 +2634,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K78" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K78" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2963,7 +2959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2973,7 +2969,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2981,97 +2977,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
       <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="55">
         <v>42583</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3079,7 +3075,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3092,24 +3088,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3144,7 +3140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3168,7 +3164,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3190,7 +3186,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3210,7 +3206,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="49"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3230,7 +3226,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3250,7 +3246,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3270,7 +3266,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3290,7 +3286,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3310,7 +3306,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3330,7 +3326,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3350,7 +3346,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3370,7 +3366,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3390,7 +3386,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3410,7 +3406,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3434,7 +3430,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>47</v>
       </c>
@@ -3452,7 +3448,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3472,7 +3468,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3492,7 +3488,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3512,7 +3508,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3532,7 +3528,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3552,7 +3548,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3572,7 +3568,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3592,7 +3588,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3616,7 +3612,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3636,7 +3632,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3662,7 +3658,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3682,7 +3678,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3702,7 +3698,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>57</v>
       </c>
@@ -3720,7 +3716,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3740,7 +3736,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3760,7 +3756,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3780,7 +3776,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3800,7 +3796,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -3820,7 +3816,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3840,7 +3836,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -3860,7 +3856,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -3880,7 +3876,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -3900,7 +3896,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -3920,7 +3916,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -3940,7 +3936,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -3964,7 +3960,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>60</v>
       </c>
@@ -3982,7 +3978,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4002,7 +3998,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4022,7 +4018,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4042,7 +4038,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4062,7 +4058,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4082,7 +4078,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4102,7 +4098,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4122,7 +4118,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4142,7 +4138,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4162,7 +4158,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4182,7 +4178,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4202,7 +4198,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4226,7 +4222,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>61</v>
       </c>
@@ -4244,7 +4240,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4264,7 +4260,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4284,7 +4280,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4304,7 +4300,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4330,7 +4326,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4350,7 +4346,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="49"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4376,7 +4372,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4402,7 +4398,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4422,7 +4418,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4448,7 +4444,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4468,7 +4464,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4494,7 +4490,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4514,7 +4510,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>74</v>
       </c>
@@ -4532,7 +4528,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44927</v>
       </c>
@@ -4558,7 +4554,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4574,7 +4570,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4590,7 +4586,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4606,7 +4602,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4622,7 +4618,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4638,7 +4634,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4654,7 +4650,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4670,7 +4666,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4686,7 +4682,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4702,7 +4698,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23" t="s">
         <v>32</v>
       </c>
@@ -4720,7 +4716,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4736,7 +4732,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4752,7 +4748,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4768,7 +4764,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4784,7 +4780,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4800,7 +4796,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4816,7 +4812,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4832,7 +4828,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4848,7 +4844,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4864,7 +4860,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4880,7 +4876,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4896,7 +4892,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4912,7 +4908,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4928,7 +4924,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4944,7 +4940,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4960,7 +4956,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4976,7 +4972,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4992,7 +4988,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5008,7 +5004,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5024,7 +5020,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5040,7 +5036,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5056,7 +5052,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5072,7 +5068,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5088,7 +5084,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5104,7 +5100,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5120,7 +5116,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5136,7 +5132,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5152,7 +5148,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5168,7 +5164,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5184,7 +5180,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5200,7 +5196,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5216,7 +5212,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5232,7 +5228,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5248,7 +5244,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5264,7 +5260,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5280,7 +5276,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5296,7 +5292,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5312,7 +5308,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5328,7 +5324,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5344,7 +5340,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5360,7 +5356,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5376,7 +5372,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="41"/>
       <c r="B128" s="15"/>
       <c r="C128" s="42"/>
@@ -5394,23 +5390,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5433,97 +5429,97 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K78"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
       <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="55">
         <v>42583</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5531,7 +5527,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5544,24 +5540,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5596,7 +5592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5620,7 +5616,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5642,7 +5638,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -5664,7 +5660,7 @@
         <v>43126</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -5688,7 +5684,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
         <v>47</v>
       </c>
@@ -5706,7 +5702,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43525</v>
       </c>
@@ -5728,7 +5724,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43556</v>
       </c>
@@ -5752,7 +5748,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43739</v>
       </c>
@@ -5776,7 +5772,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>55</v>
@@ -5798,7 +5794,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>57</v>
       </c>
@@ -5816,7 +5812,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43862</v>
       </c>
@@ -5838,7 +5834,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="48" t="s">
         <v>61</v>
       </c>
@@ -5856,7 +5852,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>44682</v>
       </c>
@@ -5880,7 +5876,7 @@
         <v>44706</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>44713</v>
       </c>
@@ -5904,7 +5900,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>44805</v>
       </c>
@@ -5926,7 +5922,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>72</v>
@@ -5948,7 +5944,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="48" t="s">
         <v>74</v>
       </c>
@@ -5966,7 +5962,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44927</v>
       </c>
@@ -5990,7 +5986,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -6006,7 +6002,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -6022,7 +6018,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6038,7 +6034,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6054,7 +6050,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6070,7 +6066,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6086,7 +6082,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6102,7 +6098,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6118,7 +6114,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6134,7 +6130,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23" t="s">
         <v>32</v>
       </c>
@@ -6152,7 +6148,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6168,7 +6164,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6184,7 +6180,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6200,7 +6196,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6216,7 +6212,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6232,7 +6228,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6248,7 +6244,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6264,7 +6260,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6280,7 +6276,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6296,7 +6292,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6312,7 +6308,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6328,7 +6324,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6344,7 +6340,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6360,7 +6356,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6376,7 +6372,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6392,7 +6388,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6408,7 +6404,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6424,7 +6420,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6440,7 +6436,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6456,7 +6452,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6472,7 +6468,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6488,7 +6484,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6504,7 +6500,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6520,7 +6516,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6536,7 +6532,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6552,7 +6548,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6568,7 +6564,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6584,7 +6580,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6600,7 +6596,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6616,7 +6612,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6632,7 +6628,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6648,7 +6644,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6664,7 +6660,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6680,7 +6676,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6696,7 +6692,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6712,7 +6708,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6728,7 +6724,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -6744,7 +6740,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -6760,7 +6756,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -6776,7 +6772,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -6792,7 +6788,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -6808,7 +6804,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="41"/>
       <c r="B78" s="15"/>
       <c r="C78" s="42"/>
@@ -6839,10 +6835,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6865,28 +6861,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -6899,7 +6895,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6928,7 +6924,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>10.75</v>
       </c>
@@ -6952,17 +6948,20 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6983,7 +6982,11 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
+        <v>118.5</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7010,7 +7013,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7036,7 +7039,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7062,7 +7065,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7088,7 +7091,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7114,7 +7117,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7140,7 +7143,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7166,7 +7169,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7192,7 +7195,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7212,7 +7215,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7232,7 +7235,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7252,7 +7255,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7273,7 +7276,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7294,7 +7297,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7315,7 +7318,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7336,7 +7339,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7357,7 +7360,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7378,7 +7381,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7399,7 +7402,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7420,7 +7423,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7441,7 +7444,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7462,7 +7465,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7483,7 +7486,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7504,7 +7507,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7525,7 +7528,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7546,7 +7549,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7567,7 +7570,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7588,7 +7591,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7609,7 +7612,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7630,7 +7633,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7651,7 +7654,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7672,7 +7675,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7681,7 +7684,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7690,7 +7693,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7699,7 +7702,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7708,7 +7711,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7717,7 +7720,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7726,7 +7729,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7735,7 +7738,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7744,7 +7747,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7753,7 +7756,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7762,7 +7765,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7771,7 +7774,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7780,7 +7783,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7789,7 +7792,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7798,7 +7801,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7807,7 +7810,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7816,7 +7819,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7825,7 +7828,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7834,7 +7837,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7843,7 +7846,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7852,7 +7855,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7861,7 +7864,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7870,7 +7873,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7879,7 +7882,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7888,7 +7891,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7897,7 +7900,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7906,7 +7909,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7915,7 +7918,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7924,7 +7927,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7933,7 +7936,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/DOGELIO, CHRISTIAN.xlsx
+++ b/DOGELIO, CHRISTIAN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D432566D-8225-45F9-8CCF-61090E3E4056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CBE9ED-B905-44A0-8352-A8C1488ED5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
   <si>
     <t>PERIOD</t>
   </si>
@@ -266,6 +266,12 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>4/26,27,28/2023</t>
   </si>
 </sst>
 </file>
@@ -650,17 +656,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -670,6 +673,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2983,10 +2989,10 @@
   </sheetPr>
   <dimension ref="A2:K128"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A64" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3016,14 +3022,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3034,16 +3040,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>42583</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3056,16 +3062,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3091,18 +3097,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3149,7 +3155,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>42.25</v>
+        <v>41.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3159,7 +3165,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4555,15 +4561,19 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
+      <c r="A77" s="40">
+        <v>44958</v>
+      </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -4571,15 +4581,19 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -4587,10 +4601,16 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="40"/>
-      <c r="B79" s="20"/>
+      <c r="A79" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C79" s="13"/>
-      <c r="D79" s="39"/>
+      <c r="D79" s="39">
+        <v>3</v>
+      </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
       <c r="G79" s="13" t="str">
@@ -4600,10 +4620,14 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
+      <c r="K79" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45047</v>
+      </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
@@ -4619,7 +4643,9 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45078</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -4635,7 +4661,9 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45108</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -4651,7 +4679,9 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45139</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -4667,7 +4697,9 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45170</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -4683,7 +4715,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="23"/>
+      <c r="A85" s="40">
+        <v>45200</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -5390,17 +5424,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5468,14 +5502,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -5486,16 +5520,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>42583</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -5508,16 +5542,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -5543,18 +5577,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -6864,7 +6898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -6985,7 +7019,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>118.5</v>
+        <v>120.5</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/DOGELIO, CHRISTIAN.xlsx
+++ b/DOGELIO, CHRISTIAN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CBE9ED-B905-44A0-8352-A8C1488ED5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="78">
   <si>
     <t>PERIOD</t>
   </si>
@@ -277,7 +276,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1206,7 +1205,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1249,7 +1248,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1313,7 +1312,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1373,7 +1372,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1439,7 +1438,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1502,7 +1501,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1600,7 +1599,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1659,7 +1658,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1724,7 +1723,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1767,7 +1766,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1842,7 +1841,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2028,7 +2027,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,7 +2093,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,7 +2151,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2218,7 +2217,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2274,7 +2273,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2349,7 +2348,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2392,7 +2391,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2458,7 +2457,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2514,7 +2513,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,25 +2609,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K128" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K128" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2640,25 +2639,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K78" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K78" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2965,7 +2964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2975,7 +2974,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2983,34 +2982,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A70" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
       <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3031,7 +3030,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3051,7 +3050,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3073,7 +3072,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3081,7 +3080,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3094,7 +3093,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -3111,7 +3110,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3146,7 +3145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3155,7 +3154,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>41.75</v>
+        <v>44.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3165,12 +3164,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3192,7 +3191,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3212,7 +3211,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="49"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3232,7 +3231,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3252,7 +3251,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3272,7 +3271,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3292,7 +3291,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3312,7 +3311,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3332,7 +3331,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3352,7 +3351,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3372,7 +3371,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3392,7 +3391,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3412,7 +3411,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3436,7 +3435,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>47</v>
       </c>
@@ -3454,7 +3453,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3474,7 +3473,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3494,7 +3493,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3514,7 +3513,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3534,7 +3533,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3554,7 +3553,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3574,7 +3573,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3594,7 +3593,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3618,7 +3617,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3638,7 +3637,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3664,7 +3663,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3684,7 +3683,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3704,7 +3703,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>57</v>
       </c>
@@ -3722,7 +3721,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3742,7 +3741,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3762,7 +3761,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3782,7 +3781,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3802,7 +3801,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -3822,7 +3821,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3842,7 +3841,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -3862,7 +3861,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -3882,7 +3881,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -3902,7 +3901,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -3922,7 +3921,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -3942,7 +3941,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -3966,7 +3965,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>60</v>
       </c>
@@ -3984,7 +3983,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4004,7 +4003,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4024,7 +4023,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4044,7 +4043,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4064,7 +4063,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4084,7 +4083,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4104,7 +4103,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4124,7 +4123,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4144,7 +4143,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4164,7 +4163,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4184,7 +4183,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4204,7 +4203,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4228,7 +4227,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>61</v>
       </c>
@@ -4246,7 +4245,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4266,7 +4265,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4286,7 +4285,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4306,7 +4305,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4332,7 +4331,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4352,7 +4351,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="49"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4378,7 +4377,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4404,7 +4403,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4424,7 +4423,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4450,7 +4449,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4470,7 +4469,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4496,7 +4495,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4516,7 +4515,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>74</v>
       </c>
@@ -4534,7 +4533,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44927</v>
       </c>
@@ -4560,7 +4559,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44958</v>
       </c>
@@ -4580,7 +4579,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44986</v>
       </c>
@@ -4600,22 +4599,24 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45017</v>
       </c>
       <c r="B79" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39">
         <v>3</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -4624,25 +4625,27 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45047</v>
       </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K80" s="49"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45078</v>
       </c>
@@ -4660,7 +4663,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45108</v>
       </c>
@@ -4678,7 +4681,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45139</v>
       </c>
@@ -4696,7 +4699,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45170</v>
       </c>
@@ -4714,7 +4717,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45200</v>
       </c>
@@ -4732,7 +4735,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23" t="s">
         <v>32</v>
       </c>
@@ -4750,7 +4753,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4766,7 +4769,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4782,7 +4785,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4798,7 +4801,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4814,7 +4817,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4830,7 +4833,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4846,7 +4849,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4862,7 +4865,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4878,7 +4881,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4894,7 +4897,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4910,7 +4913,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4926,7 +4929,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4942,7 +4945,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4958,7 +4961,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4974,7 +4977,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4990,7 +4993,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5006,7 +5009,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5022,7 +5025,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5038,7 +5041,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5054,7 +5057,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5070,7 +5073,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5086,7 +5089,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5102,7 +5105,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5118,7 +5121,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5134,7 +5137,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5150,7 +5153,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5166,7 +5169,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5182,7 +5185,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5198,7 +5201,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5214,7 +5217,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5230,7 +5233,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5246,7 +5249,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5262,7 +5265,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5278,7 +5281,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5294,7 +5297,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5310,7 +5313,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5326,7 +5329,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5342,7 +5345,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5358,7 +5361,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5374,7 +5377,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5390,7 +5393,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5406,7 +5409,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="41"/>
       <c r="B128" s="15"/>
       <c r="C128" s="42"/>
@@ -5437,10 +5440,10 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5463,34 +5466,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A7" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A13" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5511,7 +5514,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5531,7 +5534,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5553,7 +5556,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5561,7 +5564,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5574,7 +5577,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -5591,7 +5594,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5626,7 +5629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5645,12 +5648,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5672,7 +5675,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -5694,7 +5697,7 @@
         <v>43126</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -5718,7 +5721,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
         <v>47</v>
       </c>
@@ -5736,7 +5739,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43525</v>
       </c>
@@ -5758,7 +5761,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43556</v>
       </c>
@@ -5782,7 +5785,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43739</v>
       </c>
@@ -5806,7 +5809,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>55</v>
@@ -5828,7 +5831,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>57</v>
       </c>
@@ -5846,7 +5849,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43862</v>
       </c>
@@ -5868,7 +5871,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
         <v>61</v>
       </c>
@@ -5886,7 +5889,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>44682</v>
       </c>
@@ -5910,7 +5913,7 @@
         <v>44706</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>44713</v>
       </c>
@@ -5934,7 +5937,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>44805</v>
       </c>
@@ -5956,7 +5959,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>72</v>
@@ -5978,7 +5981,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>74</v>
       </c>
@@ -5996,7 +5999,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44927</v>
       </c>
@@ -6020,9 +6023,13 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="20"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
       <c r="E27" s="9"/>
@@ -6031,12 +6038,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H27" s="39"/>
+      <c r="H27" s="39">
+        <v>1</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K27" s="49">
+        <v>45053</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -6052,7 +6063,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6068,7 +6079,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6084,7 +6095,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6100,7 +6111,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6116,7 +6127,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6132,7 +6143,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6148,7 +6159,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6164,7 +6175,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>32</v>
       </c>
@@ -6182,7 +6193,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6198,7 +6209,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6214,7 +6225,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6230,7 +6241,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6246,7 +6257,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6262,7 +6273,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6278,7 +6289,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6294,7 +6305,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6310,7 +6321,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6326,7 +6337,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6342,7 +6353,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6358,7 +6369,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6374,7 +6385,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6390,7 +6401,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6406,7 +6417,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6422,7 +6433,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6438,7 +6449,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6454,7 +6465,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6470,7 +6481,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6486,7 +6497,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6502,7 +6513,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6518,7 +6529,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6534,7 +6545,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6550,7 +6561,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6566,7 +6577,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6582,7 +6593,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6598,7 +6609,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6614,7 +6625,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6630,7 +6641,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6646,7 +6657,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6662,7 +6673,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6678,7 +6689,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6694,7 +6705,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6710,7 +6721,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6726,7 +6737,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6742,7 +6753,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6758,7 +6769,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -6774,7 +6785,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -6790,7 +6801,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -6806,7 +6817,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -6822,7 +6833,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -6838,7 +6849,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="41"/>
       <c r="B78" s="15"/>
       <c r="C78" s="42"/>
@@ -6869,10 +6880,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6895,28 +6906,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -6929,7 +6940,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6958,7 +6969,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>10.75</v>
       </c>
@@ -6982,17 +6993,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -7016,10 +7027,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>120.5</v>
+        <v>125.5</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -7047,7 +7058,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7073,7 +7084,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7099,7 +7110,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7125,7 +7136,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7151,7 +7162,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7177,7 +7188,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7203,7 +7214,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7229,7 +7240,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7249,7 +7260,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7269,7 +7280,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7289,7 +7300,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7310,7 +7321,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7331,7 +7342,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7352,7 +7363,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7373,7 +7384,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7394,7 +7405,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7415,7 +7426,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7436,7 +7447,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7457,7 +7468,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7478,7 +7489,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7499,7 +7510,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7520,7 +7531,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7541,7 +7552,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7562,7 +7573,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7583,7 +7594,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7604,7 +7615,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7625,7 +7636,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7646,7 +7657,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7667,7 +7678,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7688,7 +7699,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7709,7 +7720,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7718,7 +7729,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7727,7 +7738,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7736,7 +7747,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7745,7 +7756,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7754,7 +7765,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7763,7 +7774,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7772,7 +7783,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7781,7 +7792,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7790,7 +7801,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7799,7 +7810,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7808,7 +7819,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7817,7 +7828,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7826,7 +7837,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7835,7 +7846,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7844,7 +7855,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7853,7 +7864,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7862,7 +7873,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7871,7 +7882,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7880,7 +7891,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7889,7 +7900,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7898,7 +7909,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7907,7 +7918,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7916,7 +7927,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7925,7 +7936,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7934,7 +7945,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7943,7 +7954,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7952,7 +7963,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7961,7 +7972,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7970,7 +7981,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/DOGELIO, CHRISTIAN.xlsx
+++ b/DOGELIO, CHRISTIAN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="79">
   <si>
     <t>PERIOD</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>4/26,27,28/2023</t>
+  </si>
+  <si>
+    <t>7/7,12/2023</t>
   </si>
 </sst>
 </file>
@@ -655,14 +658,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -672,9 +678,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1205,7 +1208,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1248,7 +1251,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1312,7 +1315,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1372,7 +1375,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1438,7 +1441,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1501,7 +1504,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1599,7 +1602,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1658,7 +1661,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,7 +1726,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1766,7 +1769,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1841,7 +1844,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2027,7 +2030,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2093,7 +2096,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2154,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2217,7 +2220,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2273,7 +2276,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2348,7 +2351,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2391,7 +2394,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,7 +2460,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2513,7 +2516,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3021,14 +3024,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3039,16 +3042,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>42583</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3061,16 +3064,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3096,18 +3099,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5427,17 +5430,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5475,7 +5478,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A13" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5505,14 +5508,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5523,16 +5526,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>42583</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5545,16 +5548,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5580,18 +5583,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5648,7 +5651,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>10.25</v>
+        <v>8.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6049,7 +6052,9 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
-      <c r="B28" s="20"/>
+      <c r="B28" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
       <c r="E28" s="9"/>
@@ -6058,10 +6063,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H28" s="39"/>
+      <c r="H28" s="39">
+        <v>2</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>

--- a/DOGELIO, CHRISTIAN.xlsx
+++ b/DOGELIO, CHRISTIAN.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="80">
   <si>
     <t>PERIOD</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>7/7,12/2023</t>
+  </si>
+  <si>
+    <t>7/20,21/2023</t>
   </si>
 </sst>
 </file>
@@ -658,17 +661,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -678,6 +678,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1208,7 +1211,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1251,7 +1254,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1315,7 +1318,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1375,7 +1378,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1444,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1504,7 +1507,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1602,7 +1605,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,7 +1664,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1726,7 +1729,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1769,7 +1772,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1844,7 +1847,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2030,7 +2033,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2096,7 +2099,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2154,7 +2157,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2223,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2276,7 +2279,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2351,7 +2354,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2394,7 +2397,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2463,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2516,7 +2519,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2994,7 +2997,7 @@
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3024,14 +3027,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3042,16 +3045,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>42583</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3064,16 +3067,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3099,18 +3102,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3157,7 +3160,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>44.25</v>
+        <v>45.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3167,7 +3170,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>81.25</v>
+        <v>82.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4653,13 +4656,15 @@
         <v>45078</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -5430,17 +5435,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5478,7 +5483,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A13" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5508,14 +5513,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5526,16 +5531,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>42583</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5548,16 +5553,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5583,18 +5588,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5651,7 +5656,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>8.25</v>
+        <v>6.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6073,8 +6078,12 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C29" s="13"/>
       <c r="D29" s="39"/>
       <c r="E29" s="9"/>
@@ -6083,10 +6092,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H29" s="39"/>
+      <c r="H29" s="39">
+        <v>2</v>
+      </c>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="20"/>
+      <c r="K29" s="20" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
@@ -7039,7 +7052,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>125.5</v>
+        <v>128</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/DOGELIO, CHRISTIAN.xlsx
+++ b/DOGELIO, CHRISTIAN.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="83">
   <si>
     <t>PERIOD</t>
   </si>
@@ -277,6 +277,15 @@
   </si>
   <si>
     <t>7/20,21/2023</t>
+  </si>
+  <si>
+    <t>8/22,23/2023</t>
+  </si>
+  <si>
+    <t>8/24,25/2023</t>
+  </si>
+  <si>
+    <t>9/11,14,15/2023</t>
   </si>
 </sst>
 </file>
@@ -661,14 +670,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -678,9 +690,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1211,7 +1220,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1254,7 +1263,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1318,7 +1327,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1378,7 +1387,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +1453,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1516,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,7 +1614,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1664,7 +1673,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1729,7 +1738,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1772,7 +1781,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1847,7 +1856,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2033,7 +2042,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2099,7 +2108,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2157,7 +2166,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2223,7 +2232,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2279,7 +2288,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2354,7 +2363,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2406,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2472,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2519,7 +2528,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2997,7 +3006,7 @@
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
+      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3027,14 +3036,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3045,16 +3054,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>42583</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3067,16 +3076,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3102,18 +3111,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3160,7 +3169,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>45.5</v>
+        <v>46</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3170,7 +3179,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>82.5</v>
+        <v>85</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4676,13 +4685,15 @@
         <v>45108</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -4693,19 +4704,27 @@
       <c r="A83" s="40">
         <v>45139</v>
       </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="39"/>
+      <c r="B83" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D83" s="39">
+        <v>2</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="20" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
@@ -5435,17 +5454,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5481,9 +5500,9 @@
   <dimension ref="A2:K78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A13" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5513,14 +5532,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5531,16 +5550,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>42583</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5553,16 +5572,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5588,18 +5607,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5656,7 +5675,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>6.25</v>
+        <v>1.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6102,8 +6121,12 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
       <c r="E30" s="9"/>
@@ -6112,14 +6135,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H30" s="39"/>
+      <c r="H30" s="39">
+        <v>2</v>
+      </c>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="20"/>
+      <c r="K30" s="20" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C31" s="13"/>
       <c r="D31" s="39"/>
       <c r="E31" s="9"/>
@@ -6128,10 +6159,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H31" s="39"/>
+      <c r="H31" s="39">
+        <v>3</v>
+      </c>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="20"/>
+      <c r="K31" s="20" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
@@ -7052,7 +7087,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/DOGELIO, CHRISTIAN.xlsx
+++ b/DOGELIO, CHRISTIAN.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>PERIOD</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>12/12,15/2023</t>
+  </si>
+  <si>
+    <t>SL(6-0-0)</t>
+  </si>
+  <si>
+    <t>12/19-22,27,28/2023</t>
   </si>
 </sst>
 </file>
@@ -691,14 +697,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -708,9 +717,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1241,7 +1247,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1284,7 +1290,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1348,7 +1354,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1408,7 +1414,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1474,7 +1480,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1537,7 +1543,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1635,7 +1641,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1694,7 +1700,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1759,7 +1765,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1802,7 +1808,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1877,7 +1883,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2063,7 +2069,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2129,7 +2135,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,7 +2193,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2259,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2309,7 +2315,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2384,7 +2390,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2427,7 +2433,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2493,7 +2499,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2549,7 +2555,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2645,7 +2651,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K129" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K130" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -3022,12 +3028,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K129"/>
+  <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="K87" sqref="K87"/>
+      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3057,14 +3063,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3075,16 +3081,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>42583</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3097,16 +3103,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3132,18 +3138,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3190,7 +3196,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>49.75</v>
+        <v>51</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3200,7 +3206,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>65.75</v>
+        <v>61</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4826,15 +4832,19 @@
       <c r="B87" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H87" s="39"/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H87" s="39">
+        <v>6</v>
+      </c>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20" t="s">
@@ -4842,26 +4852,25 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="B88" s="20"/>
+      <c r="A88" s="40"/>
+      <c r="B88" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G88" s="13"/>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
+      <c r="K88" s="20" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40">
-        <v>45292</v>
+      <c r="A89" s="48" t="s">
+        <v>85</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4879,7 +4888,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4897,7 +4906,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4915,7 +4924,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4933,7 +4942,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4951,7 +4960,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4969,7 +4978,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4987,7 +4996,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5004,7 +5013,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45505</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -5516,34 +5527,50 @@
       <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="41"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="43"/>
+      <c r="A129" s="40"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="39"/>
       <c r="E129" s="9"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H129" s="43"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H129" s="39"/>
       <c r="I129" s="9"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="15"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="20"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="41"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="42"/>
+      <c r="D130" s="43"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="43"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5611,14 +5638,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5629,16 +5656,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>42583</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5651,16 +5678,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5686,18 +5713,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7166,7 +7193,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>115.5</v>
+        <v>112</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
